--- a/MavenProject/TestDataExcel/zooplalogintestdata.xlsx
+++ b/MavenProject/TestDataExcel/zooplalogintestdata.xlsx
@@ -389,19 +389,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,35 +411,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="F3" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="E3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
